--- a/Team-Data/2014-15/12-25-2014-15.xlsx
+++ b/Team-Data/2014-15/12-25-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>5.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE2" t="n">
         <v>4</v>
@@ -774,7 +841,7 @@
         <v>9</v>
       </c>
       <c r="AN2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
         <v>14</v>
@@ -783,7 +850,7 @@
         <v>18</v>
       </c>
       <c r="AQ2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR2" t="n">
         <v>30</v>
@@ -792,19 +859,19 @@
         <v>11</v>
       </c>
       <c r="AT2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU2" t="n">
         <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW2" t="n">
         <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY2" t="n">
         <v>11</v>
@@ -813,7 +880,7 @@
         <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB2" t="n">
         <v>9</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-25-2014-15</t>
+          <t>2014-12-25</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-0.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE3" t="n">
         <v>22</v>
@@ -947,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AL3" t="n">
         <v>15</v>
@@ -965,10 +1032,10 @@
         <v>26</v>
       </c>
       <c r="AQ3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR3" t="n">
         <v>15</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>17</v>
       </c>
       <c r="AS3" t="n">
         <v>8</v>
@@ -980,7 +1047,7 @@
         <v>2</v>
       </c>
       <c r="AV3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW3" t="n">
         <v>8</v>
@@ -992,7 +1059,7 @@
         <v>20</v>
       </c>
       <c r="AZ3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA3" t="n">
         <v>30</v>
@@ -1001,7 +1068,7 @@
         <v>7</v>
       </c>
       <c r="BC3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-25-2014-15</t>
+          <t>2014-12-25</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-2</v>
       </c>
       <c r="AD4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
@@ -1123,10 +1190,10 @@
         <v>4</v>
       </c>
       <c r="AI4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
         <v>21</v>
@@ -1135,13 +1202,13 @@
         <v>17</v>
       </c>
       <c r="AM4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AN4" t="n">
         <v>19</v>
       </c>
-      <c r="AN4" t="n">
-        <v>20</v>
-      </c>
       <c r="AO4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
@@ -1162,7 +1229,7 @@
         <v>15</v>
       </c>
       <c r="AV4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW4" t="n">
         <v>18</v>
@@ -1174,7 +1241,7 @@
         <v>13</v>
       </c>
       <c r="AZ4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA4" t="n">
         <v>23</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-25-2014-15</t>
+          <t>2014-12-25</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
@@ -1308,25 +1375,25 @@
         <v>18</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK5" t="n">
         <v>25</v>
       </c>
       <c r="AL5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN5" t="n">
         <v>25</v>
       </c>
       <c r="AO5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ5" t="n">
         <v>25</v>
@@ -1335,7 +1402,7 @@
         <v>26</v>
       </c>
       <c r="AS5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT5" t="n">
         <v>19</v>
@@ -1359,7 +1426,7 @@
         <v>2</v>
       </c>
       <c r="BA5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB5" t="n">
         <v>22</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-25-2014-15</t>
+          <t>2014-12-25</t>
         </is>
       </c>
     </row>
@@ -1394,88 +1461,88 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" t="n">
         <v>9</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.679</v>
       </c>
       <c r="H6" t="n">
         <v>48.5</v>
       </c>
       <c r="I6" t="n">
-        <v>37.1</v>
+        <v>36.9</v>
       </c>
       <c r="J6" t="n">
-        <v>80.90000000000001</v>
+        <v>80.7</v>
       </c>
       <c r="K6" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L6" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M6" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="N6" t="n">
-        <v>0.367</v>
+        <v>0.365</v>
       </c>
       <c r="O6" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="P6" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="Q6" t="n">
         <v>0.775</v>
       </c>
       <c r="R6" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="S6" t="n">
         <v>34.4</v>
       </c>
       <c r="T6" t="n">
-        <v>45.5</v>
+        <v>45.1</v>
       </c>
       <c r="U6" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="V6" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W6" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="X6" t="n">
         <v>6.1</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AB6" t="n">
-        <v>103.4</v>
+        <v>103</v>
       </c>
       <c r="AC6" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="AD6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE6" t="n">
         <v>8</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>6</v>
       </c>
       <c r="AF6" t="n">
         <v>8</v>
@@ -1484,25 +1551,25 @@
         <v>8</v>
       </c>
       <c r="AH6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL6" t="n">
         <v>13</v>
       </c>
       <c r="AM6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO6" t="n">
         <v>2</v>
@@ -1511,16 +1578,16 @@
         <v>2</v>
       </c>
       <c r="AQ6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR6" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AS6" t="n">
         <v>4</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AU6" t="n">
         <v>12</v>
@@ -1538,16 +1605,16 @@
         <v>15</v>
       </c>
       <c r="AZ6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA6" t="n">
         <v>2</v>
       </c>
       <c r="BB6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BC6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-25-2014-15</t>
+          <t>2014-12-25</t>
         </is>
       </c>
     </row>
@@ -1576,64 +1643,64 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" t="n">
         <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>0.607</v>
+        <v>0.63</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>37.8</v>
+        <v>38</v>
       </c>
       <c r="J7" t="n">
-        <v>80.90000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="K7" t="n">
-        <v>0.466</v>
+        <v>0.467</v>
       </c>
       <c r="L7" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="M7" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="N7" t="n">
-        <v>0.359</v>
+        <v>0.365</v>
       </c>
       <c r="O7" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="P7" t="n">
-        <v>25.8</v>
+        <v>25.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.763</v>
+        <v>0.769</v>
       </c>
       <c r="R7" t="n">
         <v>10.6</v>
       </c>
       <c r="S7" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T7" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="U7" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="V7" t="n">
         <v>13.7</v>
       </c>
       <c r="W7" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
         <v>4.3</v>
@@ -1642,76 +1709,76 @@
         <v>5</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AA7" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AB7" t="n">
-        <v>103.2</v>
+        <v>103.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AE7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG7" t="n">
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK7" t="n">
         <v>6</v>
       </c>
       <c r="AL7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM7" t="n">
         <v>13</v>
       </c>
       <c r="AN7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO7" t="n">
         <v>5</v>
       </c>
       <c r="AP7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AQ7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR7" t="n">
         <v>19</v>
       </c>
       <c r="AS7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT7" t="n">
         <v>25</v>
       </c>
       <c r="AU7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
         <v>8</v>
       </c>
       <c r="AW7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX7" t="n">
         <v>22</v>
@@ -1723,10 +1790,10 @@
         <v>1</v>
       </c>
       <c r="BA7" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BB7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BC7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-25-2014-15</t>
+          <t>2014-12-25</t>
         </is>
       </c>
     </row>
@@ -1758,67 +1825,67 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" t="n">
         <v>20</v>
       </c>
       <c r="F8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.667</v>
       </c>
       <c r="H8" t="n">
         <v>48.5</v>
       </c>
       <c r="I8" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="J8" t="n">
-        <v>86.40000000000001</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.476</v>
+        <v>0.477</v>
       </c>
       <c r="L8" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="M8" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="O8" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="P8" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.768</v>
+        <v>0.77</v>
       </c>
       <c r="R8" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S8" t="n">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
       <c r="T8" t="n">
-        <v>42.7</v>
+        <v>42.3</v>
       </c>
       <c r="U8" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="V8" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="W8" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y8" t="n">
         <v>3.4</v>
@@ -1827,28 +1894,28 @@
         <v>20.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>110</v>
+        <v>109.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>6</v>
       </c>
       <c r="AF8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AI8" t="n">
         <v>1</v>
@@ -1863,13 +1930,13 @@
         <v>4</v>
       </c>
       <c r="AM8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN8" t="n">
         <v>16</v>
       </c>
       <c r="AO8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
         <v>16</v>
@@ -1878,13 +1945,13 @@
         <v>11</v>
       </c>
       <c r="AR8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AU8" t="n">
         <v>7</v>
@@ -1893,13 +1960,13 @@
         <v>6</v>
       </c>
       <c r="AW8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX8" t="n">
         <v>10</v>
       </c>
       <c r="AY8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ8" t="n">
         <v>13</v>
@@ -1911,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="BC8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-25-2014-15</t>
+          <t>2014-12-25</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-2.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>18</v>
@@ -2030,7 +2097,7 @@
         <v>20</v>
       </c>
       <c r="AH9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI9" t="n">
         <v>16</v>
@@ -2042,22 +2109,22 @@
         <v>26</v>
       </c>
       <c r="AL9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM9" t="n">
         <v>7</v>
       </c>
       <c r="AN9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP9" t="n">
         <v>9</v>
       </c>
       <c r="AQ9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR9" t="n">
         <v>2</v>
@@ -2066,28 +2133,28 @@
         <v>9</v>
       </c>
       <c r="AT9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU9" t="n">
         <v>17</v>
       </c>
       <c r="AV9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AW9" t="n">
         <v>20</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>19</v>
       </c>
       <c r="AX9" t="n">
         <v>16</v>
       </c>
       <c r="AY9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ9" t="n">
         <v>30</v>
       </c>
       <c r="BA9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BB9" t="n">
         <v>16</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-25-2014-15</t>
+          <t>2014-12-25</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-6.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE10" t="n">
         <v>27</v>
@@ -2212,19 +2279,19 @@
         <v>28</v>
       </c>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI10" t="n">
         <v>27</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK10" t="n">
         <v>30</v>
       </c>
       <c r="AL10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM10" t="n">
         <v>11</v>
@@ -2233,10 +2300,10 @@
         <v>24</v>
       </c>
       <c r="AO10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ10" t="n">
         <v>29</v>
@@ -2269,10 +2336,10 @@
         <v>10</v>
       </c>
       <c r="BA10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC10" t="n">
         <v>28</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-25-2014-15</t>
+          <t>2014-12-25</t>
         </is>
       </c>
     </row>
@@ -2304,52 +2371,52 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" t="n">
         <v>23</v>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>0.821</v>
+        <v>0.852</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
       </c>
       <c r="I11" t="n">
-        <v>40.6</v>
+        <v>40.9</v>
       </c>
       <c r="J11" t="n">
-        <v>84.7</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.48</v>
+        <v>0.481</v>
       </c>
       <c r="L11" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M11" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="N11" t="n">
-        <v>0.369</v>
+        <v>0.375</v>
       </c>
       <c r="O11" t="n">
-        <v>16.6</v>
+        <v>16.8</v>
       </c>
       <c r="P11" t="n">
         <v>21.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.779</v>
+        <v>0.788</v>
       </c>
       <c r="R11" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="S11" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="T11" t="n">
         <v>45.3</v>
@@ -2364,25 +2431,25 @@
         <v>8.6</v>
       </c>
       <c r="X11" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Z11" t="n">
         <v>20</v>
       </c>
       <c r="AA11" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>107.4</v>
+        <v>108.1</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.6</v>
+        <v>9.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2394,25 +2461,25 @@
         <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI11" t="n">
         <v>2</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK11" t="n">
         <v>1</v>
       </c>
       <c r="AL11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AM11" t="n">
         <v>5</v>
       </c>
       <c r="AN11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO11" t="n">
         <v>21</v>
@@ -2421,7 +2488,7 @@
         <v>25</v>
       </c>
       <c r="AQ11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR11" t="n">
         <v>24</v>
@@ -2430,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU11" t="n">
         <v>3</v>
@@ -2451,7 +2518,7 @@
         <v>11</v>
       </c>
       <c r="BA11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB11" t="n">
         <v>3</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-25-2014-15</t>
+          <t>2014-12-25</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" t="n">
         <v>7</v>
       </c>
       <c r="G12" t="n">
-        <v>0.731</v>
+        <v>0.741</v>
       </c>
       <c r="H12" t="n">
         <v>48.6</v>
       </c>
       <c r="I12" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="J12" t="n">
-        <v>82.40000000000001</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K12" t="n">
         <v>0.425</v>
@@ -2513,61 +2580,61 @@
         <v>11.7</v>
       </c>
       <c r="M12" t="n">
-        <v>34.4</v>
+        <v>34.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.34</v>
+        <v>0.342</v>
       </c>
       <c r="O12" t="n">
-        <v>18</v>
+        <v>18.6</v>
       </c>
       <c r="P12" t="n">
-        <v>25.2</v>
+        <v>26.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.717</v>
+        <v>0.714</v>
       </c>
       <c r="R12" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S12" t="n">
         <v>32.2</v>
       </c>
       <c r="T12" t="n">
-        <v>44.4</v>
+        <v>44.5</v>
       </c>
       <c r="U12" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="V12" t="n">
-        <v>17.3</v>
+        <v>17.1</v>
       </c>
       <c r="W12" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="X12" t="n">
         <v>5</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z12" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AD12" t="n">
         <v>23</v>
       </c>
-      <c r="AA12" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>29</v>
-      </c>
       <c r="AE12" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AF12" t="n">
         <v>2</v>
@@ -2576,7 +2643,7 @@
         <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI12" t="n">
         <v>28</v>
@@ -2597,16 +2664,16 @@
         <v>18</v>
       </c>
       <c r="AO12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AP12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS12" t="n">
         <v>12</v>
@@ -2615,7 +2682,7 @@
         <v>10</v>
       </c>
       <c r="AU12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
@@ -2624,22 +2691,22 @@
         <v>3</v>
       </c>
       <c r="AX12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY12" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BB12" t="n">
         <v>18</v>
       </c>
       <c r="BC12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-25-2014-15</t>
+          <t>2014-12-25</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
         <v>22</v>
@@ -2794,7 +2861,7 @@
         <v>5</v>
       </c>
       <c r="AT13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU13" t="n">
         <v>25</v>
@@ -2803,19 +2870,19 @@
         <v>12</v>
       </c>
       <c r="AW13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AX13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ13" t="n">
         <v>17</v>
       </c>
       <c r="BA13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB13" t="n">
         <v>29</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-25-2014-15</t>
+          <t>2014-12-25</t>
         </is>
       </c>
     </row>
@@ -2850,67 +2917,67 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F14" t="n">
         <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>0.667</v>
+        <v>0.655</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="J14" t="n">
-        <v>81.8</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.473</v>
+        <v>0.476</v>
       </c>
       <c r="L14" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="M14" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.38</v>
+        <v>0.384</v>
       </c>
       <c r="O14" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="P14" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="Q14" t="n">
         <v>0.756</v>
       </c>
       <c r="R14" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S14" t="n">
-        <v>31.6</v>
+        <v>31.4</v>
       </c>
       <c r="T14" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="U14" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="V14" t="n">
         <v>12.5</v>
       </c>
       <c r="W14" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X14" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y14" t="n">
         <v>3.1</v>
@@ -2922,19 +2989,19 @@
         <v>22.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.5</v>
+        <v>106.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG14" t="n">
         <v>10</v>
@@ -2946,7 +3013,7 @@
         <v>10</v>
       </c>
       <c r="AJ14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK14" t="n">
         <v>3</v>
@@ -2961,25 +3028,25 @@
         <v>3</v>
       </c>
       <c r="AO14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT14" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AU14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV14" t="n">
         <v>7</v>
@@ -2988,13 +3055,13 @@
         <v>13</v>
       </c>
       <c r="AX14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA14" t="n">
         <v>6</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-25-2014-15</t>
+          <t>2014-12-25</t>
         </is>
       </c>
     </row>
@@ -3047,70 +3114,70 @@
         <v>48.5</v>
       </c>
       <c r="I15" t="n">
-        <v>38.4</v>
+        <v>38.1</v>
       </c>
       <c r="J15" t="n">
-        <v>87.5</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L15" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M15" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="N15" t="n">
         <v>0.348</v>
       </c>
       <c r="O15" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="P15" t="n">
-        <v>25.3</v>
+        <v>26</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.749</v>
+        <v>0.751</v>
       </c>
       <c r="R15" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="S15" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T15" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U15" t="n">
         <v>20.6</v>
       </c>
       <c r="V15" t="n">
-        <v>11.9</v>
+        <v>12.3</v>
       </c>
       <c r="W15" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X15" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="AA15" t="n">
-        <v>20.9</v>
+        <v>21.6</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="AC15" t="n">
         <v>-6.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
@@ -3122,7 +3189,7 @@
         <v>25</v>
       </c>
       <c r="AH15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI15" t="n">
         <v>12</v>
@@ -3134,7 +3201,7 @@
         <v>23</v>
       </c>
       <c r="AL15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM15" t="n">
         <v>21</v>
@@ -3143,22 +3210,22 @@
         <v>17</v>
       </c>
       <c r="AO15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU15" t="n">
         <v>21</v>
@@ -3170,7 +3237,7 @@
         <v>14</v>
       </c>
       <c r="AX15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY15" t="n">
         <v>7</v>
@@ -3179,7 +3246,7 @@
         <v>20</v>
       </c>
       <c r="BA15" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="BB15" t="n">
         <v>12</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-25-2014-15</t>
+          <t>2014-12-25</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>5</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
@@ -3307,7 +3374,7 @@
         <v>2</v>
       </c>
       <c r="AI16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ16" t="n">
         <v>14</v>
@@ -3325,13 +3392,13 @@
         <v>15</v>
       </c>
       <c r="AO16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR16" t="n">
         <v>22</v>
@@ -3346,16 +3413,16 @@
         <v>11</v>
       </c>
       <c r="AV16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX16" t="n">
         <v>25</v>
       </c>
       <c r="AY16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ16" t="n">
         <v>7</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-25-2014-15</t>
+          <t>2014-12-25</t>
         </is>
       </c>
     </row>
@@ -3396,31 +3463,31 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
       </c>
       <c r="G17" t="n">
-        <v>0.467</v>
+        <v>0.448</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>34.4</v>
+        <v>34.2</v>
       </c>
       <c r="J17" t="n">
-        <v>74.8</v>
+        <v>74.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L17" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M17" t="n">
         <v>21.9</v>
@@ -3429,28 +3496,28 @@
         <v>0.358</v>
       </c>
       <c r="O17" t="n">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="P17" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.735</v>
+        <v>0.733</v>
       </c>
       <c r="R17" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S17" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="T17" t="n">
-        <v>36</v>
+        <v>35.8</v>
       </c>
       <c r="U17" t="n">
-        <v>19.9</v>
+        <v>19.6</v>
       </c>
       <c r="V17" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W17" t="n">
         <v>8.699999999999999</v>
@@ -3462,22 +3529,22 @@
         <v>4.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>94.5</v>
+        <v>94.2</v>
       </c>
       <c r="AC17" t="n">
-        <v>-3.1</v>
+        <v>-3.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AF17" t="n">
         <v>17</v>
@@ -3495,25 +3562,25 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL17" t="n">
         <v>12</v>
       </c>
       <c r="AM17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AN17" t="n">
         <v>14</v>
       </c>
       <c r="AO17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3525,10 +3592,10 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW17" t="n">
         <v>5</v>
@@ -3537,16 +3604,16 @@
         <v>30</v>
       </c>
       <c r="AY17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ17" t="n">
         <v>12</v>
       </c>
       <c r="BA17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BB17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC17" t="n">
         <v>22</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-25-2014-15</t>
+          <t>2014-12-25</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-1.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE18" t="n">
         <v>14</v>
@@ -3665,16 +3732,16 @@
         <v>15</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH18" t="n">
         <v>6</v>
       </c>
       <c r="AI18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK18" t="n">
         <v>8</v>
@@ -3686,13 +3753,13 @@
         <v>24</v>
       </c>
       <c r="AN18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO18" t="n">
         <v>18</v>
       </c>
       <c r="AP18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ18" t="n">
         <v>7</v>
@@ -3704,7 +3771,7 @@
         <v>27</v>
       </c>
       <c r="AT18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU18" t="n">
         <v>10</v>
@@ -3719,13 +3786,13 @@
         <v>26</v>
       </c>
       <c r="AY18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB18" t="n">
         <v>19</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-25-2014-15</t>
+          <t>2014-12-25</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-10.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE19" t="n">
         <v>27</v>
@@ -3856,7 +3923,7 @@
         <v>17</v>
       </c>
       <c r="AJ19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK19" t="n">
         <v>24</v>
@@ -3886,7 +3953,7 @@
         <v>28</v>
       </c>
       <c r="AT19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU19" t="n">
         <v>13</v>
@@ -3901,10 +3968,10 @@
         <v>24</v>
       </c>
       <c r="AY19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA19" t="n">
         <v>5</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-25-2014-15</t>
+          <t>2014-12-25</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F20" t="n">
         <v>14</v>
       </c>
       <c r="G20" t="n">
-        <v>0.481</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
@@ -3960,97 +4027,97 @@
         <v>39.1</v>
       </c>
       <c r="J20" t="n">
-        <v>84.90000000000001</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.46</v>
+        <v>0.458</v>
       </c>
       <c r="L20" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M20" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="N20" t="n">
-        <v>0.338</v>
+        <v>0.335</v>
       </c>
       <c r="O20" t="n">
         <v>17</v>
       </c>
       <c r="P20" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.762</v>
+        <v>0.748</v>
       </c>
       <c r="R20" t="n">
-        <v>11.4</v>
+        <v>12</v>
       </c>
       <c r="S20" t="n">
-        <v>30.9</v>
+        <v>31.1</v>
       </c>
       <c r="T20" t="n">
-        <v>42.4</v>
+        <v>43.1</v>
       </c>
       <c r="U20" t="n">
         <v>21.8</v>
       </c>
       <c r="V20" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="W20" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X20" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="AB20" t="n">
-        <v>101.9</v>
+        <v>101.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>-1</v>
+        <v>-0.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AE20" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AF20" t="n">
         <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH20" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ20" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
         <v>25</v>
       </c>
       <c r="AM20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN20" t="n">
         <v>22</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>19</v>
       </c>
       <c r="AO20" t="n">
         <v>19</v>
@@ -4059,43 +4126,43 @@
         <v>19</v>
       </c>
       <c r="AQ20" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AR20" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AS20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT20" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AU20" t="n">
         <v>14</v>
       </c>
       <c r="AV20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY20" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AZ20" t="n">
         <v>9</v>
       </c>
       <c r="BA20" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BB20" t="n">
         <v>14</v>
       </c>
       <c r="BC20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-25-2014-15</t>
+          <t>2014-12-25</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G21" t="n">
-        <v>0.161</v>
+        <v>0.167</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
@@ -4142,43 +4209,43 @@
         <v>36.5</v>
       </c>
       <c r="J21" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K21" t="n">
         <v>0.451</v>
       </c>
       <c r="L21" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M21" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N21" t="n">
-        <v>0.359</v>
+        <v>0.366</v>
       </c>
       <c r="O21" t="n">
         <v>14.1</v>
       </c>
       <c r="P21" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="Q21" t="n">
         <v>0.793</v>
       </c>
       <c r="R21" t="n">
-        <v>10.6</v>
+        <v>10.8</v>
       </c>
       <c r="S21" t="n">
         <v>28.3</v>
       </c>
       <c r="T21" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="U21" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="V21" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="W21" t="n">
         <v>7.1</v>
@@ -4190,19 +4257,19 @@
         <v>3.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="AA21" t="n">
         <v>19.1</v>
       </c>
       <c r="AB21" t="n">
-        <v>94</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>-6.4</v>
+        <v>-6.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE21" t="n">
         <v>27</v>
@@ -4217,22 +4284,22 @@
         <v>23</v>
       </c>
       <c r="AI21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK21" t="n">
         <v>20</v>
       </c>
       <c r="AL21" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AM21" t="n">
         <v>23</v>
       </c>
       <c r="AN21" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4244,7 +4311,7 @@
         <v>2</v>
       </c>
       <c r="AR21" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AS21" t="n">
         <v>29</v>
@@ -4256,10 +4323,10 @@
         <v>16</v>
       </c>
       <c r="AV21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AW21" t="n">
         <v>19</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>21</v>
       </c>
       <c r="AX21" t="n">
         <v>27</v>
@@ -4274,7 +4341,7 @@
         <v>26</v>
       </c>
       <c r="BB21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC21" t="n">
         <v>26</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-25-2014-15</t>
+          <t>2014-12-25</t>
         </is>
       </c>
     </row>
@@ -4306,64 +4373,64 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22" t="n">
         <v>16</v>
       </c>
       <c r="G22" t="n">
-        <v>0.467</v>
+        <v>0.448</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="J22" t="n">
-        <v>82.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K22" t="n">
-        <v>0.444</v>
+        <v>0.441</v>
       </c>
       <c r="L22" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M22" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="N22" t="n">
-        <v>0.325</v>
+        <v>0.318</v>
       </c>
       <c r="O22" t="n">
-        <v>17.5</v>
+        <v>17.3</v>
       </c>
       <c r="P22" t="n">
-        <v>23.7</v>
+        <v>23.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.736</v>
+        <v>0.746</v>
       </c>
       <c r="R22" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="S22" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="T22" t="n">
-        <v>45.7</v>
+        <v>45.6</v>
       </c>
       <c r="U22" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="V22" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W22" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X22" t="n">
         <v>5.9</v>
@@ -4372,22 +4439,22 @@
         <v>4.9</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>97.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC22" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AF22" t="n">
         <v>17</v>
@@ -4396,10 +4463,10 @@
         <v>16</v>
       </c>
       <c r="AH22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ22" t="n">
         <v>17</v>
@@ -4408,25 +4475,25 @@
         <v>22</v>
       </c>
       <c r="AL22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM22" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AN22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO22" t="n">
         <v>16</v>
       </c>
       <c r="AP22" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AQ22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS22" t="n">
         <v>6</v>
@@ -4441,19 +4508,19 @@
         <v>25</v>
       </c>
       <c r="AW22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY22" t="n">
         <v>18</v>
       </c>
       <c r="AZ22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA22" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BB22" t="n">
         <v>21</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-25-2014-15</t>
+          <t>2014-12-25</t>
         </is>
       </c>
     </row>
@@ -4488,115 +4555,115 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E23" t="n">
         <v>11</v>
       </c>
       <c r="F23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G23" t="n">
-        <v>0.367</v>
+        <v>0.355</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="J23" t="n">
-        <v>80.3</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.457</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M23" t="n">
-        <v>18.8</v>
+        <v>18.5</v>
       </c>
       <c r="N23" t="n">
         <v>0.375</v>
       </c>
       <c r="O23" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="P23" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.722</v>
+        <v>0.723</v>
       </c>
       <c r="R23" t="n">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="S23" t="n">
-        <v>31.9</v>
+        <v>32.1</v>
       </c>
       <c r="T23" t="n">
-        <v>40.7</v>
+        <v>41.2</v>
       </c>
       <c r="U23" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="V23" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W23" t="n">
         <v>6.6</v>
       </c>
       <c r="X23" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="AA23" t="n">
         <v>18.9</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.2</v>
+        <v>93.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5</v>
+        <v>-5.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>21</v>
       </c>
       <c r="AF23" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AG23" t="n">
         <v>22</v>
       </c>
       <c r="AH23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ23" t="n">
         <v>27</v>
       </c>
       <c r="AK23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO23" t="n">
         <v>30</v>
@@ -4611,34 +4678,34 @@
         <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT23" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AU23" t="n">
         <v>29</v>
       </c>
       <c r="AV23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX23" t="n">
         <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA23" t="n">
+        <v>29</v>
+      </c>
+      <c r="BB23" t="n">
         <v>28</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>27</v>
       </c>
       <c r="BC23" t="n">
         <v>25</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-25-2014-15</t>
+          <t>2014-12-25</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-11.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE24" t="n">
         <v>30</v>
@@ -4766,7 +4833,7 @@
         <v>30</v>
       </c>
       <c r="AJ24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK24" t="n">
         <v>29</v>
@@ -4811,13 +4878,13 @@
         <v>5</v>
       </c>
       <c r="AY24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ24" t="n">
         <v>23</v>
       </c>
       <c r="BA24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-25-2014-15</t>
+          <t>2014-12-25</t>
         </is>
       </c>
     </row>
@@ -4942,22 +5009,22 @@
         <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI25" t="n">
         <v>9</v>
       </c>
       <c r="AJ25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL25" t="n">
         <v>2</v>
       </c>
       <c r="AM25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN25" t="n">
         <v>9</v>
@@ -4975,7 +5042,7 @@
         <v>20</v>
       </c>
       <c r="AS25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT25" t="n">
         <v>17</v>
@@ -4999,7 +5066,7 @@
         <v>26</v>
       </c>
       <c r="BA25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB25" t="n">
         <v>5</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-25-2014-15</t>
+          <t>2014-12-25</t>
         </is>
       </c>
     </row>
@@ -5136,13 +5203,13 @@
         <v>19</v>
       </c>
       <c r="AL26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM26" t="n">
         <v>6</v>
       </c>
       <c r="AN26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
         <v>26</v>
@@ -5163,16 +5230,16 @@
         <v>1</v>
       </c>
       <c r="AU26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV26" t="n">
         <v>10</v>
       </c>
       <c r="AW26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY26" t="n">
         <v>4</v>
@@ -5187,7 +5254,7 @@
         <v>6</v>
       </c>
       <c r="BC26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-25-2014-15</t>
+          <t>2014-12-25</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-1.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE27" t="n">
         <v>18</v>
@@ -5315,7 +5382,7 @@
         <v>28</v>
       </c>
       <c r="AK27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL27" t="n">
         <v>29</v>
@@ -5324,7 +5391,7 @@
         <v>29</v>
       </c>
       <c r="AN27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5357,10 +5424,10 @@
         <v>28</v>
       </c>
       <c r="AY27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA27" t="n">
         <v>1</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-25-2014-15</t>
+          <t>2014-12-25</t>
         </is>
       </c>
     </row>
@@ -5401,46 +5468,46 @@
         <v>29</v>
       </c>
       <c r="E28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G28" t="n">
-        <v>0.586</v>
+        <v>0.621</v>
       </c>
       <c r="H28" t="n">
         <v>49.4</v>
       </c>
       <c r="I28" t="n">
-        <v>38.6</v>
+        <v>38.4</v>
       </c>
       <c r="J28" t="n">
-        <v>83.09999999999999</v>
+        <v>82.7</v>
       </c>
       <c r="K28" t="n">
         <v>0.464</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="M28" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="N28" t="n">
-        <v>0.377</v>
+        <v>0.385</v>
       </c>
       <c r="O28" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="P28" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.766</v>
+        <v>0.768</v>
       </c>
       <c r="R28" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="S28" t="n">
         <v>34.7</v>
@@ -5449,34 +5516,34 @@
         <v>44.8</v>
       </c>
       <c r="U28" t="n">
-        <v>24.5</v>
+        <v>24.2</v>
       </c>
       <c r="V28" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W28" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X28" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="AA28" t="n">
         <v>20.7</v>
       </c>
       <c r="AB28" t="n">
-        <v>103.1</v>
+        <v>102.9</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE28" t="n">
         <v>11</v>
@@ -5506,7 +5573,7 @@
         <v>15</v>
       </c>
       <c r="AN28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO28" t="n">
         <v>13</v>
@@ -5515,7 +5582,7 @@
         <v>17</v>
       </c>
       <c r="AQ28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR28" t="n">
         <v>23</v>
@@ -5527,22 +5594,22 @@
         <v>8</v>
       </c>
       <c r="AU28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>16</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ28" t="n">
         <v>5</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>6</v>
       </c>
       <c r="BA28" t="n">
         <v>18</v>
@@ -5551,7 +5618,7 @@
         <v>11</v>
       </c>
       <c r="BC28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-25-2014-15</t>
+          <t>2014-12-25</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>8.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
         <v>3</v>
@@ -5670,13 +5737,13 @@
         <v>3</v>
       </c>
       <c r="AH29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI29" t="n">
         <v>5</v>
       </c>
       <c r="AJ29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK29" t="n">
         <v>10</v>
@@ -5688,7 +5755,7 @@
         <v>8</v>
       </c>
       <c r="AN29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO29" t="n">
         <v>3</v>
@@ -5721,7 +5788,7 @@
         <v>19</v>
       </c>
       <c r="AY29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ29" t="n">
         <v>22</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-25-2014-15</t>
+          <t>2014-12-25</t>
         </is>
       </c>
     </row>
@@ -5840,13 +5907,13 @@
         <v>-4.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE30" t="n">
         <v>25</v>
       </c>
       <c r="AF30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG30" t="n">
         <v>26</v>
@@ -5861,34 +5928,34 @@
         <v>29</v>
       </c>
       <c r="AK30" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM30" t="n">
         <v>20</v>
       </c>
       <c r="AN30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO30" t="n">
         <v>15</v>
       </c>
       <c r="AP30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS30" t="n">
         <v>25</v>
       </c>
       <c r="AT30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU30" t="n">
         <v>24</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-25-2014-15</t>
+          <t>2014-12-25</t>
         </is>
       </c>
     </row>
@@ -5944,28 +6011,28 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F31" t="n">
         <v>8</v>
       </c>
       <c r="G31" t="n">
-        <v>0.714</v>
+        <v>0.704</v>
       </c>
       <c r="H31" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I31" t="n">
-        <v>39.1</v>
+        <v>38.9</v>
       </c>
       <c r="J31" t="n">
-        <v>83.09999999999999</v>
+        <v>83</v>
       </c>
       <c r="K31" t="n">
-        <v>0.471</v>
+        <v>0.469</v>
       </c>
       <c r="L31" t="n">
         <v>6.1</v>
@@ -5974,58 +6041,58 @@
         <v>15.6</v>
       </c>
       <c r="N31" t="n">
-        <v>0.39</v>
+        <v>0.389</v>
       </c>
       <c r="O31" t="n">
-        <v>16.2</v>
+        <v>16.5</v>
       </c>
       <c r="P31" t="n">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.734</v>
+        <v>0.735</v>
       </c>
       <c r="R31" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S31" t="n">
         <v>32.4</v>
       </c>
       <c r="T31" t="n">
-        <v>43.3</v>
+        <v>43.2</v>
       </c>
       <c r="U31" t="n">
         <v>25</v>
       </c>
       <c r="V31" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="W31" t="n">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="X31" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y31" t="n">
         <v>4.6</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA31" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AB31" t="n">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="AC31" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AE31" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF31" t="n">
         <v>7</v>
@@ -6034,10 +6101,10 @@
         <v>7</v>
       </c>
       <c r="AH31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI31" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ31" t="n">
         <v>15</v>
@@ -6046,7 +6113,7 @@
         <v>5</v>
       </c>
       <c r="AL31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM31" t="n">
         <v>28</v>
@@ -6055,16 +6122,16 @@
         <v>1</v>
       </c>
       <c r="AO31" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AP31" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ31" t="n">
         <v>22</v>
       </c>
-      <c r="AQ31" t="n">
-        <v>23</v>
-      </c>
       <c r="AR31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS31" t="n">
         <v>10</v>
@@ -6079,13 +6146,13 @@
         <v>11</v>
       </c>
       <c r="AW31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY31" t="n">
         <v>12</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>11</v>
       </c>
       <c r="AZ31" t="n">
         <v>21</v>
@@ -6097,7 +6164,7 @@
         <v>17</v>
       </c>
       <c r="BC31" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-25-2014-15</t>
+          <t>2014-12-25</t>
         </is>
       </c>
     </row>
